--- a/backend/prompt_database/jimeng/prompt.xlsx
+++ b/backend/prompt_database/jimeng/prompt.xlsx
@@ -862,7 +862,21 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,12 +1257,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1351,31 +1380,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,141 +1402,151 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1573,221 +1601,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1797,9 +1611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1807,39 +1621,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1871,7 +1685,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1906,135 +1719,171 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2048,397 +1897,396 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.1057692307692" customWidth="1"/>
-    <col min="2" max="2" width="24.1923076923077" customWidth="1"/>
-    <col min="3" max="3" width="22.4326923076923" customWidth="1"/>
+    <col min="2" max="2" width="61.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="64.0961538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="264" spans="1:3">
+    <row r="2" ht="409.5" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_8150FF98A51E49ACBB5687DEC549E372",1)</f>
         <v>=DISPIMG("ID_8150FF98A51E49ACBB5687DEC549E372",1)</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="247" spans="1:3">
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_BEC8F07D736642CA8198BACDF1FB2ACB",1)</f>
         <v>=DISPIMG("ID_BEC8F07D736642CA8198BACDF1FB2ACB",1)</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="247" spans="1:3">
+    <row r="4" ht="409.5" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_FAACD2AC36064EA9897FB98003AF5A18",1)</f>
         <v>=DISPIMG("ID_FAACD2AC36064EA9897FB98003AF5A18",1)</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="212" spans="1:3">
+    <row r="5" ht="409.5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_DBEDE396C3E34500BA73944F6C01A878",1)</f>
         <v>=DISPIMG("ID_DBEDE396C3E34500BA73944F6C01A878",1)</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="247" spans="1:3">
+    <row r="6" ht="409.5" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_DAE69D5E8DF64F609CE92F2568E912DA",1)</f>
         <v>=DISPIMG("ID_DAE69D5E8DF64F609CE92F2568E912DA",1)</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="282" spans="1:3">
+    <row r="7" ht="409.5" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_FC508CADD1914FD8A787DF02C27A0368",1)</f>
         <v>=DISPIMG("ID_FC508CADD1914FD8A787DF02C27A0368",1)</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="264" spans="1:3">
+    <row r="8" ht="409.5" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_BE6030A215274458985E5E04523DFD6D",1)</f>
         <v>=DISPIMG("ID_BE6030A215274458985E5E04523DFD6D",1)</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="282" spans="1:3">
+    <row r="9" ht="409.5" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_89ABDF0BF75D4DA09CF431391BF33B30",1)</f>
         <v>=DISPIMG("ID_89ABDF0BF75D4DA09CF431391BF33B30",1)</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="264" spans="1:3">
+    <row r="10" ht="409.5" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_BB23FEF6BB0242299D3FB98A8FD0F4CE",1)</f>
         <v>=DISPIMG("ID_BB23FEF6BB0242299D3FB98A8FD0F4CE",1)</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="264" spans="1:3">
+    <row r="11" ht="409.5" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_72F59BC7249D4D888FC728121C0D0191",1)</f>
         <v>=DISPIMG("ID_72F59BC7249D4D888FC728121C0D0191",1)</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="247" spans="1:3">
+    <row r="12" ht="409.5" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_A2A5DF841153487BBA82ED2052C9F952",1)</f>
         <v>=DISPIMG("ID_A2A5DF841153487BBA82ED2052C9F952",1)</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="264" spans="1:3">
+    <row r="13" ht="409.5" spans="1:3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_21BE594A16FE49709B6EC0B05889B674",1)</f>
         <v>=DISPIMG("ID_21BE594A16FE49709B6EC0B05889B674",1)</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="247" spans="1:3">
+    <row r="14" ht="409.5" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_6283384324C3483C8FBFF3A0BEF396A8",1)</f>
         <v>=DISPIMG("ID_6283384324C3483C8FBFF3A0BEF396A8",1)</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="247" spans="1:3">
+    <row r="15" ht="409.5" spans="1:3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_57D4197803EF4F62879D37A3E4480236",1)</f>
         <v>=DISPIMG("ID_57D4197803EF4F62879D37A3E4480236",1)</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="264" spans="1:3">
+    <row r="16" ht="409.5" spans="1:3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_81AF230FCD764D9584272C0934534EC0",1)</f>
         <v>=DISPIMG("ID_81AF230FCD764D9584272C0934534EC0",1)</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="264" spans="1:3">
+    <row r="17" ht="409.5" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_D75D2D597B424178909B736F9EFAF842",1)</f>
         <v>=DISPIMG("ID_D75D2D597B424178909B736F9EFAF842",1)</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="282" spans="1:3">
+    <row r="18" ht="409.5" spans="1:3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_25C7CB540BA04D52B664C9D9270440EC",1)</f>
         <v>=DISPIMG("ID_25C7CB540BA04D52B664C9D9270440EC",1)</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="247" spans="1:3">
+    <row r="19" ht="409.5" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_F813F57F38EA4E8DACE461144BB8EABB",1)</f>
         <v>=DISPIMG("ID_F813F57F38EA4E8DACE461144BB8EABB",1)</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="264" spans="1:3">
+    <row r="20" ht="409.5" spans="1:3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_16F8D530036D4BF5B288357C6BDAE83E",1)</f>
         <v>=DISPIMG("ID_16F8D530036D4BF5B288357C6BDAE83E",1)</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="247" spans="1:3">
+    <row r="21" ht="409.5" spans="1:3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_9592120987BE497BA173FDDE08523187",1)</f>
         <v>=DISPIMG("ID_9592120987BE497BA173FDDE08523187",1)</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="282" spans="1:3">
+    <row r="22" ht="409.5" spans="1:3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_B362FDC4BA5648EBB192E001D6EAE0D7",1)</f>
         <v>=DISPIMG("ID_B362FDC4BA5648EBB192E001D6EAE0D7",1)</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="229" spans="1:3">
+    <row r="23" ht="409.5" spans="1:3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_0E27C8D3688345B8A7572E8F05D6EB9D",1)</f>
         <v>=DISPIMG("ID_0E27C8D3688345B8A7572E8F05D6EB9D",1)</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" ht="229" spans="1:3">
+    <row r="24" ht="409.5" spans="1:3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B24" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_DF53218FF4264CDFB015A6776A79E09B",1)</f>
         <v>=DISPIMG("ID_DF53218FF4264CDFB015A6776A79E09B",1)</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" ht="300" spans="1:3">
+    <row r="25" ht="409.5" spans="1:3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_79C9C410E75740D08745BE2EB51F5DED",1)</f>
         <v>=DISPIMG("ID_79C9C410E75740D08745BE2EB51F5DED",1)</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" ht="229" spans="1:3">
+    <row r="26" ht="409.5" spans="1:3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_8C881357670247F18741CE3FA65EFDCD",1)</f>
         <v>=DISPIMG("ID_8C881357670247F18741CE3FA65EFDCD",1)</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" ht="282" spans="1:3">
+    <row r="27" ht="409.5" spans="1:3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_85B7DD21659B43FF9C16974ADBF9B1FB",1)</f>
         <v>=DISPIMG("ID_85B7DD21659B43FF9C16974ADBF9B1FB",1)</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" ht="282" spans="1:3">
+    <row r="28" ht="409.5" spans="1:3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_6E813E9259DE4318BC0923C987ECCB01",1)</f>
         <v>=DISPIMG("ID_6E813E9259DE4318BC0923C987ECCB01",1)</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="264" spans="1:3">
+    <row r="29" ht="409.5" spans="1:3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_58B6371076E44A84B470A62D51E2C3E4",1)</f>
         <v>=DISPIMG("ID_58B6371076E44A84B470A62D51E2C3E4",1)</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="282" spans="1:3">
+    <row r="30" ht="409.5" spans="1:3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_0F15439DA2BB45F39185B2D9A6A0FE65",1)</f>
         <v>=DISPIMG("ID_0F15439DA2BB45F39185B2D9A6A0FE65",1)</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="300" spans="1:3">
+    <row r="31" ht="409.5" spans="1:3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="str">
+      <c r="B31" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_88FBBD576EB246DD84F0D7EA32429C04",1)</f>
         <v>=DISPIMG("ID_88FBBD576EB246DD84F0D7EA32429C04",1)</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" ht="282" spans="1:3">
+    <row r="32" ht="409.5" spans="1:3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_FBB02EBE97C64B678DA73F6351723E64",1)</f>
         <v>=DISPIMG("ID_FBB02EBE97C64B678DA73F6351723E64",1)</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
     </row>
